--- a/pred_ohlcv/54_21/2020-01-15 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-38259.27124069999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-38148.34764069999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-38146.34764069999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-47447.84704069999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-47445.84704069999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-48048.49774069999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-47148.45414069999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-47133.11824069999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-48139.2725407</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-361068.725323</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-358158.156223</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-358158.156223</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-362960.536223</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-361182.018823</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-354785.101223</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-336076.317123</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-336076.317123</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-762210.1010315301</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-760527.10113153</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-756937.07323153</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-756801.6589315301</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-759205.2864315301</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-759232.0404315301</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-759229.8044315301</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-766616.08653153</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-753411.9051601798</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-764084.6815601798</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-860473.9546468396</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-850134.1326468396</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-849690.6929468396</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-852107.1390468397</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-852217.1390468397</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-852217.1390468397</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-851717.1390468397</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-836425.7889468396</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-838307.1628468396</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-839981.9459468396</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-839959.9459468396</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-841896.9459468396</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-842864.9459468396</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-840364.9459468396</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-840364.9459468396</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-839517.8367468397</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-840422.5445468397</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-840422.5445468397</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-839830.5444468397</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-839830.5444468397</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-839694.9738468397</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-849685.6627468397</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-849675.6627468397</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-852676.2988468397</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-852476.2988468397</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-819221.7358322897</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-819576.7358322897</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-819398.7358322897</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-817640.7358322897</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-817787.7357322897</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-824679.4878322898</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-833538.5214322897</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-832773.0646322897</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-835639.4381322897</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-827209.9253660297</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-816473.1271261497</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-813209.4155261497</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-813783.5581261498</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-834507.0727956699</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-837508.0975956699</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-837513.0975956699</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-837413.0975956699</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-837595.5227956699</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-837145.5227956699</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-833013.96009567</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-827070.48899567</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-827237.48899567</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-826788.2316956699</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-832188.8286956699</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-832170.9453958799</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-831158.9453958799</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-833167.4593266399</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-859354.7497204902</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-38259.27124069999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-37847.14764069999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-38148.34764069999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-38146.34764069999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-47447.84704069999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-47445.84704069999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-48048.49774069999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-47148.45414069999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-47133.11824069999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-48139.2725407</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-48161.2725407</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-753411.9051601798</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-764084.6815601798</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-855465.4773468396</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-860465.4773468396</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-860473.9546468396</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-850134.1326468396</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-849690.6929468396</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-852107.1390468397</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-852127.1390468397</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-852217.1390468397</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-852217.1390468397</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-851717.1390468397</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-836425.7889468396</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-839981.9459468396</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-839959.9459468396</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-841896.9459468396</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-841896.9459468396</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-842864.9459468396</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-840364.9459468396</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-840364.9459468396</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-840422.5445468397</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-840422.5445468397</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-839830.5444468397</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-839830.5444468397</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-839694.9738468397</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-849685.6627468397</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-849675.6627468397</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-852676.2988468397</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-852476.2988468397</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-852476.2988468397</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-852483.2988468397</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-852481.2662468397</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-852381.2662468397</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-834910.0616619097</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-827264.2247619097</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-823785.2929070797</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-819221.7358322897</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-819576.7358322897</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-819398.7358322897</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-818551.7358322897</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-817640.7358322897</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-817787.7357322897</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-822121.4878322898</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-824679.4878322898</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-833538.5214322897</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-832773.0646322897</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-835639.4381322897</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-835171.3186811197</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-827209.9253660297</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-822773.4668660298</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-816473.1271261497</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-813209.4155261497</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-813783.5581261498</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-834507.0727956699</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-837518.0975956699</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-837508.0975956699</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-837513.0975956699</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-837413.0975956699</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-837595.5227956699</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-837145.5227956699</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-833013.96009567</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-827070.48899567</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-827237.48899567</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-826788.2316956699</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-832188.8286956699</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-832170.9453958799</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-832173.9453958799</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-832158.9453958799</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-831158.9453958799</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-833167.4593266399</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-859354.7497204902</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
